--- a/academias/Recursos socioemocionales - Estadisticos 20242.xlsx
+++ b/academias/Recursos socioemocionales - Estadisticos 20242.xlsx
@@ -615,27 +615,18 @@
         <v>37</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="1">
-        <v>100</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
       <c r="I2" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -647,27 +638,18 @@
         <v>34</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
-        <v>100</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
       <c r="I3" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
         <v>0</v>
       </c>
     </row>
@@ -682,27 +664,18 @@
         <v>38</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>95</v>
-      </c>
-      <c r="H4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
         <v>0</v>
       </c>
     </row>
@@ -714,27 +687,18 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>95</v>
-      </c>
-      <c r="H5" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -749,27 +713,18 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="1">
-        <v>100</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
       <c r="I6" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
         <v>0</v>
       </c>
     </row>
@@ -781,27 +736,18 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="1">
-        <v>100</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
       <c r="I7" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -816,27 +762,18 @@
         <v>40</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8" s="1">
-        <v>76.7</v>
-      </c>
-      <c r="H8" s="1">
-        <v>23.3</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
         <v>0</v>
       </c>
     </row>
@@ -848,27 +785,18 @@
         <v>34</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9" s="1">
-        <v>76.7</v>
-      </c>
-      <c r="H9" s="1">
-        <v>23.3</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -883,27 +811,18 @@
         <v>41</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="1">
-        <v>100</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
       <c r="I10" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -915,27 +834,18 @@
         <v>34</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" s="1">
-        <v>100</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
       <c r="I11" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -950,27 +860,18 @@
         <v>42</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12" s="1">
-        <v>78.3</v>
-      </c>
-      <c r="H12" s="1">
-        <v>21.7</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
         <v>0</v>
       </c>
     </row>
@@ -982,27 +883,18 @@
         <v>34</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1">
-        <v>78.3</v>
-      </c>
-      <c r="H13" s="1">
-        <v>21.7</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1017,27 +909,18 @@
         <v>43</v>
       </c>
       <c r="D14">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" s="1">
-        <v>100</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
       <c r="I14" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1049,27 +932,18 @@
         <v>34</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" s="1">
-        <v>100</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
       <c r="I15" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1084,31 +958,22 @@
         <v>44</v>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" s="1">
-        <v>100</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
       <c r="I16" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1116,31 +981,22 @@
         <v>34</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="1">
-        <v>100</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
       <c r="I17" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1151,31 +1007,22 @@
         <v>45</v>
       </c>
       <c r="D18">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18" s="1">
-        <v>100</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
       <c r="I18" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1183,31 +1030,22 @@
         <v>34</v>
       </c>
       <c r="D19">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" s="1">
-        <v>100</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
       <c r="I19" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1218,31 +1056,22 @@
         <v>46</v>
       </c>
       <c r="D20">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20" s="1">
-        <v>100</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
       <c r="I20" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1250,31 +1079,22 @@
         <v>34</v>
       </c>
       <c r="D21">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" s="1">
-        <v>100</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
       <c r="I21" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1285,31 +1105,22 @@
         <v>47</v>
       </c>
       <c r="D22">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>98</v>
-      </c>
-      <c r="H22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1317,31 +1128,22 @@
         <v>34</v>
       </c>
       <c r="D23">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>98</v>
-      </c>
-      <c r="H23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1352,31 +1154,22 @@
         <v>48</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" s="1">
-        <v>100</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
       <c r="I24" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1384,31 +1177,22 @@
         <v>34</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" s="1">
-        <v>100</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
       <c r="I25" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1419,31 +1203,22 @@
         <v>49</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>96.8</v>
-      </c>
-      <c r="H26" s="1">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
-      <c r="K26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1451,31 +1226,22 @@
         <v>34</v>
       </c>
       <c r="D27">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1">
-        <v>96.8</v>
-      </c>
-      <c r="H27" s="1">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="K27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1486,31 +1252,22 @@
         <v>50</v>
       </c>
       <c r="D28">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28" s="1">
-        <v>100</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
       <c r="I28" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
-      <c r="K28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1518,31 +1275,22 @@
         <v>34</v>
       </c>
       <c r="D29">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" s="1">
-        <v>100</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
       <c r="I29" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -1553,31 +1301,22 @@
         <v>51</v>
       </c>
       <c r="D30">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30" s="1">
-        <v>100</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
       <c r="I30" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
-      <c r="K30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1585,31 +1324,22 @@
         <v>34</v>
       </c>
       <c r="D31">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" s="1">
-        <v>100</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
       <c r="I31" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
-      <c r="K31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1620,31 +1350,22 @@
         <v>52</v>
       </c>
       <c r="D32">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32" s="1">
-        <v>100</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
       <c r="I32" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
-      <c r="K32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1652,31 +1373,22 @@
         <v>34</v>
       </c>
       <c r="D33">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
-      <c r="G33" s="1">
-        <v>100</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
       <c r="I33" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
-      <c r="K33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -1687,31 +1399,22 @@
         <v>53</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1">
-        <v>96</v>
-      </c>
-      <c r="H34" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I34" s="2">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -1719,31 +1422,22 @@
         <v>34</v>
       </c>
       <c r="D35">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1">
-        <v>96</v>
-      </c>
-      <c r="H35" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I35" s="2">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
-      <c r="K35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1754,31 +1448,22 @@
         <v>54</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="H36" s="1">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="2">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
-      <c r="K36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -1786,31 +1471,22 @@
         <v>34</v>
       </c>
       <c r="D37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="H37" s="1">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="2">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
-      <c r="K37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -1821,31 +1497,22 @@
         <v>55</v>
       </c>
       <c r="D38">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
-      <c r="G38" s="1">
-        <v>100</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
       <c r="I38" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
-      <c r="K38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -1853,31 +1520,22 @@
         <v>34</v>
       </c>
       <c r="D39">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
-      <c r="G39" s="1">
-        <v>100</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
       <c r="I39" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
-      <c r="K39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -1888,31 +1546,22 @@
         <v>56</v>
       </c>
       <c r="D40">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
-      <c r="G40" s="1">
-        <v>100</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0</v>
-      </c>
       <c r="I40" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
-      <c r="K40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -1920,31 +1569,22 @@
         <v>34</v>
       </c>
       <c r="D41">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
-      <c r="G41" s="1">
-        <v>100</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0</v>
-      </c>
       <c r="I41" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
-      <c r="K41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -1955,31 +1595,22 @@
         <v>57</v>
       </c>
       <c r="D42">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="H42" s="1">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="2">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
-      <c r="K42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -1987,31 +1618,22 @@
         <v>34</v>
       </c>
       <c r="D43">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="H43" s="1">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="2">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
-      <c r="K43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -2022,31 +1644,22 @@
         <v>58</v>
       </c>
       <c r="D44">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1">
-        <v>94.7</v>
-      </c>
-      <c r="H44" s="1">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="I44" s="2">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
-      <c r="K44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -2054,56 +1667,38 @@
         <v>34</v>
       </c>
       <c r="D45">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" s="1">
-        <v>94.7</v>
-      </c>
-      <c r="H45" s="1">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="I45" s="2">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
-      <c r="K45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+    </row>
+    <row r="46" spans="1:10">
       <c r="B46" t="s">
         <v>36</v>
       </c>
       <c r="D46">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>614</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>20</v>
-      </c>
-      <c r="G46" s="1">
-        <v>96.8</v>
-      </c>
-      <c r="H46" s="1">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="I46" s="2">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2172,28 +1767,19 @@
         <v>37</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2204,28 +1790,19 @@
         <v>34</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2239,28 +1816,19 @@
         <v>38</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>40</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>40</v>
-      </c>
-      <c r="K4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2271,28 +1839,19 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>40</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>40</v>
-      </c>
-      <c r="K5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2306,28 +1865,19 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>39</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>39</v>
-      </c>
-      <c r="K6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2338,28 +1888,19 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>39</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>39</v>
-      </c>
-      <c r="K7" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2373,28 +1914,19 @@
         <v>40</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>30</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>30</v>
-      </c>
-      <c r="K8" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2405,28 +1937,19 @@
         <v>34</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>30</v>
-      </c>
-      <c r="K9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2440,28 +1963,19 @@
         <v>41</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>24</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>24</v>
-      </c>
-      <c r="K10" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2472,28 +1986,19 @@
         <v>34</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>24</v>
-      </c>
-      <c r="K11" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2507,28 +2012,19 @@
         <v>42</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>23</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>23</v>
-      </c>
-      <c r="K12" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2539,28 +2035,19 @@
         <v>34</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>23</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>23</v>
-      </c>
-      <c r="K13" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2574,28 +2061,19 @@
         <v>43</v>
       </c>
       <c r="D14">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>38</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>38</v>
-      </c>
-      <c r="K14" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2606,28 +2084,19 @@
         <v>34</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>38</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>38</v>
-      </c>
-      <c r="K15" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2641,31 +2110,22 @@
         <v>44</v>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>36</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>36</v>
-      </c>
-      <c r="K16" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2673,31 +2133,22 @@
         <v>34</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>36</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>36</v>
-      </c>
-      <c r="K17" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2708,31 +2159,22 @@
         <v>45</v>
       </c>
       <c r="D18">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>38</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>38</v>
-      </c>
-      <c r="K18" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2740,31 +2182,22 @@
         <v>34</v>
       </c>
       <c r="D19">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>38</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>38</v>
-      </c>
-      <c r="K19" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2775,31 +2208,22 @@
         <v>46</v>
       </c>
       <c r="D20">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>34</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>34</v>
-      </c>
-      <c r="K20" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2807,31 +2231,22 @@
         <v>34</v>
       </c>
       <c r="D21">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>34</v>
-      </c>
-      <c r="K21" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2842,31 +2257,22 @@
         <v>47</v>
       </c>
       <c r="D22">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>49</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>49</v>
-      </c>
-      <c r="K22" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2874,31 +2280,22 @@
         <v>34</v>
       </c>
       <c r="D23">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>49</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>49</v>
-      </c>
-      <c r="K23" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2909,31 +2306,22 @@
         <v>48</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>24</v>
-      </c>
-      <c r="K24" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2941,31 +2329,22 @@
         <v>34</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>24</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>24</v>
-      </c>
-      <c r="K25" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -2976,31 +2355,22 @@
         <v>49</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>31</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>31</v>
-      </c>
-      <c r="K26" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -3008,31 +2378,22 @@
         <v>34</v>
       </c>
       <c r="D27">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>31</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>31</v>
-      </c>
-      <c r="K27" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -3043,31 +2404,22 @@
         <v>50</v>
       </c>
       <c r="D28">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>28</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>28</v>
-      </c>
-      <c r="K28" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -3075,31 +2427,22 @@
         <v>34</v>
       </c>
       <c r="D29">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>28</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>28</v>
-      </c>
-      <c r="K29" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -3110,31 +2453,22 @@
         <v>51</v>
       </c>
       <c r="D30">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>39</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>39</v>
-      </c>
-      <c r="K30" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -3142,31 +2476,22 @@
         <v>34</v>
       </c>
       <c r="D31">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>39</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I31" s="2">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>39</v>
-      </c>
-      <c r="K31" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -3177,31 +2502,22 @@
         <v>52</v>
       </c>
       <c r="D32">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>37</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>37</v>
-      </c>
-      <c r="K32" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -3209,31 +2525,22 @@
         <v>34</v>
       </c>
       <c r="D33">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>37</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>37</v>
-      </c>
-      <c r="K33" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -3244,31 +2551,22 @@
         <v>53</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>25</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I34" s="2">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>25</v>
-      </c>
-      <c r="K34" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -3276,31 +2574,22 @@
         <v>34</v>
       </c>
       <c r="D35">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>25</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>25</v>
-      </c>
-      <c r="K35" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -3311,31 +2600,22 @@
         <v>54</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>11</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>11</v>
-      </c>
-      <c r="K36" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -3343,31 +2623,22 @@
         <v>34</v>
       </c>
       <c r="D37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>11</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>11</v>
-      </c>
-      <c r="K37" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -3378,31 +2649,22 @@
         <v>55</v>
       </c>
       <c r="D38">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>13</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>13</v>
-      </c>
-      <c r="K38" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -3410,31 +2672,22 @@
         <v>34</v>
       </c>
       <c r="D39">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>13</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>13</v>
-      </c>
-      <c r="K39" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -3445,31 +2698,22 @@
         <v>56</v>
       </c>
       <c r="D40">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>32</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I40" s="2">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>32</v>
-      </c>
-      <c r="K40" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -3477,31 +2721,22 @@
         <v>34</v>
       </c>
       <c r="D41">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>32</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="2">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>32</v>
-      </c>
-      <c r="K41" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -3512,31 +2747,22 @@
         <v>57</v>
       </c>
       <c r="D42">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>14</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0</v>
-      </c>
-      <c r="H42" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I42" s="2">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>14</v>
-      </c>
-      <c r="K42" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -3544,31 +2770,22 @@
         <v>34</v>
       </c>
       <c r="D43">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>14</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0</v>
-      </c>
-      <c r="H43" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="2">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>14</v>
-      </c>
-      <c r="K43" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -3579,31 +2796,22 @@
         <v>58</v>
       </c>
       <c r="D44">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>19</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0</v>
-      </c>
-      <c r="H44" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I44" s="2">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>19</v>
-      </c>
-      <c r="K44" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -3611,57 +2819,39 @@
         <v>34</v>
       </c>
       <c r="D45">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>19</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0</v>
-      </c>
-      <c r="H45" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="2">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>19</v>
-      </c>
-      <c r="K45" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="B46" t="s">
         <v>36</v>
       </c>
       <c r="D46">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>634</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0</v>
-      </c>
-      <c r="H46" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="2">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>634</v>
-      </c>
-      <c r="K46" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3729,28 +2919,19 @@
         <v>37</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3761,28 +2942,19 @@
         <v>34</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3796,28 +2968,19 @@
         <v>38</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>40</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>40</v>
-      </c>
-      <c r="K4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3828,28 +2991,19 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>40</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>40</v>
-      </c>
-      <c r="K5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3863,28 +3017,19 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>39</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>39</v>
-      </c>
-      <c r="K6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3895,28 +3040,19 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>39</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>39</v>
-      </c>
-      <c r="K7" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3930,28 +3066,19 @@
         <v>40</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>30</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>30</v>
-      </c>
-      <c r="K8" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3962,28 +3089,19 @@
         <v>34</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>30</v>
-      </c>
-      <c r="K9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3997,28 +3115,19 @@
         <v>41</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>24</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>24</v>
-      </c>
-      <c r="K10" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -4029,28 +3138,19 @@
         <v>34</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>24</v>
-      </c>
-      <c r="K11" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -4064,28 +3164,19 @@
         <v>42</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>23</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>23</v>
-      </c>
-      <c r="K12" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4096,28 +3187,19 @@
         <v>34</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>23</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>23</v>
-      </c>
-      <c r="K13" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4131,28 +3213,19 @@
         <v>43</v>
       </c>
       <c r="D14">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>38</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>38</v>
-      </c>
-      <c r="K14" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -4163,28 +3236,19 @@
         <v>34</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>38</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>38</v>
-      </c>
-      <c r="K15" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -4198,31 +3262,22 @@
         <v>44</v>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>36</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>36</v>
-      </c>
-      <c r="K16" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -4230,31 +3285,22 @@
         <v>34</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>36</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>36</v>
-      </c>
-      <c r="K17" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -4265,31 +3311,22 @@
         <v>45</v>
       </c>
       <c r="D18">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>38</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>38</v>
-      </c>
-      <c r="K18" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -4297,31 +3334,22 @@
         <v>34</v>
       </c>
       <c r="D19">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>38</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>38</v>
-      </c>
-      <c r="K19" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -4332,31 +3360,22 @@
         <v>46</v>
       </c>
       <c r="D20">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>34</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>34</v>
-      </c>
-      <c r="K20" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4364,31 +3383,22 @@
         <v>34</v>
       </c>
       <c r="D21">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>34</v>
-      </c>
-      <c r="K21" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4399,31 +3409,22 @@
         <v>47</v>
       </c>
       <c r="D22">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>49</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>49</v>
-      </c>
-      <c r="K22" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -4431,31 +3432,22 @@
         <v>34</v>
       </c>
       <c r="D23">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>49</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>49</v>
-      </c>
-      <c r="K23" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -4466,31 +3458,22 @@
         <v>48</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>24</v>
-      </c>
-      <c r="K24" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4498,31 +3481,22 @@
         <v>34</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>24</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>24</v>
-      </c>
-      <c r="K25" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -4533,31 +3507,22 @@
         <v>49</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>31</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>31</v>
-      </c>
-      <c r="K26" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -4565,31 +3530,22 @@
         <v>34</v>
       </c>
       <c r="D27">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>31</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>31</v>
-      </c>
-      <c r="K27" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -4600,31 +3556,22 @@
         <v>50</v>
       </c>
       <c r="D28">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>28</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>28</v>
-      </c>
-      <c r="K28" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -4632,31 +3579,22 @@
         <v>34</v>
       </c>
       <c r="D29">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>28</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>28</v>
-      </c>
-      <c r="K29" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -4667,31 +3605,22 @@
         <v>51</v>
       </c>
       <c r="D30">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>39</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>39</v>
-      </c>
-      <c r="K30" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -4699,31 +3628,22 @@
         <v>34</v>
       </c>
       <c r="D31">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>39</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I31" s="2">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>39</v>
-      </c>
-      <c r="K31" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -4734,31 +3654,22 @@
         <v>52</v>
       </c>
       <c r="D32">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>37</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>37</v>
-      </c>
-      <c r="K32" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -4766,31 +3677,22 @@
         <v>34</v>
       </c>
       <c r="D33">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>37</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>37</v>
-      </c>
-      <c r="K33" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -4801,31 +3703,22 @@
         <v>53</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>25</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I34" s="2">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>25</v>
-      </c>
-      <c r="K34" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -4833,31 +3726,22 @@
         <v>34</v>
       </c>
       <c r="D35">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>25</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>25</v>
-      </c>
-      <c r="K35" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -4868,31 +3752,22 @@
         <v>54</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>11</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>11</v>
-      </c>
-      <c r="K36" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -4900,31 +3775,22 @@
         <v>34</v>
       </c>
       <c r="D37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>11</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>11</v>
-      </c>
-      <c r="K37" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -4935,31 +3801,22 @@
         <v>55</v>
       </c>
       <c r="D38">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>13</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>13</v>
-      </c>
-      <c r="K38" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -4967,31 +3824,22 @@
         <v>34</v>
       </c>
       <c r="D39">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>13</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>13</v>
-      </c>
-      <c r="K39" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -5002,31 +3850,22 @@
         <v>56</v>
       </c>
       <c r="D40">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>32</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I40" s="2">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>32</v>
-      </c>
-      <c r="K40" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -5034,31 +3873,22 @@
         <v>34</v>
       </c>
       <c r="D41">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>32</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="2">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>32</v>
-      </c>
-      <c r="K41" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -5069,31 +3899,22 @@
         <v>57</v>
       </c>
       <c r="D42">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>14</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0</v>
-      </c>
-      <c r="H42" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I42" s="2">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>14</v>
-      </c>
-      <c r="K42" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -5101,31 +3922,22 @@
         <v>34</v>
       </c>
       <c r="D43">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>14</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0</v>
-      </c>
-      <c r="H43" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="2">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>14</v>
-      </c>
-      <c r="K43" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -5136,31 +3948,22 @@
         <v>58</v>
       </c>
       <c r="D44">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>19</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0</v>
-      </c>
-      <c r="H44" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I44" s="2">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>19</v>
-      </c>
-      <c r="K44" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -5168,57 +3971,39 @@
         <v>34</v>
       </c>
       <c r="D45">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>19</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0</v>
-      </c>
-      <c r="H45" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="2">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>19</v>
-      </c>
-      <c r="K45" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="B46" t="s">
         <v>36</v>
       </c>
       <c r="D46">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>634</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0</v>
-      </c>
-      <c r="H46" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="2">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>634</v>
-      </c>
-      <c r="K46" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
